--- a/data/trans_orig/P16A07-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A07-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>29860</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20580</v>
+        <v>20416</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41434</v>
+        <v>41143</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05111843762603793</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03523053494516298</v>
+        <v>0.03495082310944906</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07093118763332125</v>
+        <v>0.07043364142834714</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -765,19 +765,19 @@
         <v>97193</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77984</v>
+        <v>79798</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117289</v>
+        <v>115479</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1053773494864364</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08455047169109096</v>
+        <v>0.08651711152099158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.127165030800597</v>
+        <v>0.1252030912975169</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -786,19 +786,19 @@
         <v>127053</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>107011</v>
+        <v>105556</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>147672</v>
+        <v>148140</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08433824376387662</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0710338903443109</v>
+        <v>0.07006794217825771</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09802524361566643</v>
+        <v>0.09833532346572713</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>554281</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>542707</v>
+        <v>542998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>563561</v>
+        <v>563725</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.948881562373962</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9290688123666789</v>
+        <v>0.9295663585716528</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9647694650548371</v>
+        <v>0.965049176890551</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>790</v>
@@ -836,19 +836,19 @@
         <v>825140</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>805044</v>
+        <v>806854</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>844349</v>
+        <v>842535</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8946226505135636</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.872834969199403</v>
+        <v>0.8747969087024832</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.915449528308909</v>
+        <v>0.9134828884790085</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1334</v>
@@ -857,19 +857,19 @@
         <v>1379421</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1358802</v>
+        <v>1358334</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1399463</v>
+        <v>1400918</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9156617562361233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9019747563843337</v>
+        <v>0.9016646765342731</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9289661096556892</v>
+        <v>0.9299320578217435</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>18230</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11192</v>
+        <v>11611</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30024</v>
+        <v>29015</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01691261542425083</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0103833468348295</v>
+        <v>0.01077225759580406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02785426876605478</v>
+        <v>0.02691863913840208</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -982,19 +982,19 @@
         <v>57353</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42627</v>
+        <v>43689</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73873</v>
+        <v>73083</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05423270303473244</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04030745505681046</v>
+        <v>0.04131201118335717</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06985378727586414</v>
+        <v>0.06910689961892583</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -1003,19 +1003,19 @@
         <v>75583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59801</v>
+        <v>59908</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93189</v>
+        <v>96136</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03539478215615122</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02800395527552061</v>
+        <v>0.02805419851489132</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.043639548101916</v>
+        <v>0.04501952755428211</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1059664</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1047870</v>
+        <v>1048879</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1066702</v>
+        <v>1066283</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9830873845757492</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9721457312339452</v>
+        <v>0.9730813608615979</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9896166531651706</v>
+        <v>0.9892277424041959</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>973</v>
@@ -1053,19 +1053,19 @@
         <v>1000185</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>983665</v>
+        <v>984455</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1014911</v>
+        <v>1013849</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9457672969652675</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9301462127241361</v>
+        <v>0.9308931003810743</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9596925449431897</v>
+        <v>0.9586879888166429</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2010</v>
@@ -1074,19 +1074,19 @@
         <v>2059849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2042243</v>
+        <v>2039296</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2075631</v>
+        <v>2075524</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9646052178438488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9563604518980839</v>
+        <v>0.9549804724457178</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9719960447244794</v>
+        <v>0.9719458014851087</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11649</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5939</v>
+        <v>5976</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20435</v>
+        <v>19018</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01039562474665326</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005299745531637642</v>
+        <v>0.005332707996276554</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0182363595865617</v>
+        <v>0.01697178905011245</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1199,19 +1199,19 @@
         <v>45252</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33509</v>
+        <v>34888</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59958</v>
+        <v>61435</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04552776629520435</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03371363023362391</v>
+        <v>0.03510110801424336</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06032318597987121</v>
+        <v>0.06180999081077218</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1220,19 +1220,19 @@
         <v>56901</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43617</v>
+        <v>42721</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74159</v>
+        <v>73057</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0269096788648319</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02062738795249687</v>
+        <v>0.02020372589181278</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03507129424339851</v>
+        <v>0.03455033019239755</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1108927</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1100141</v>
+        <v>1101558</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1114637</v>
+        <v>1114600</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9896043752533468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9817636404134382</v>
+        <v>0.9830282109498875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9947002544683623</v>
+        <v>0.9946672920037234</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>938</v>
@@ -1270,19 +1270,19 @@
         <v>948688</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>933982</v>
+        <v>932505</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>960431</v>
+        <v>959052</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9544722337047956</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9396768140201288</v>
+        <v>0.9381900091892278</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9662863697663761</v>
+        <v>0.9648988919857567</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2028</v>
@@ -1291,19 +1291,19 @@
         <v>2057615</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2040357</v>
+        <v>2041459</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2070899</v>
+        <v>2071795</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9730903211351681</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9649287057566016</v>
+        <v>0.9654496698076029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9793726120475031</v>
+        <v>0.9797962741081873</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>8671</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3921</v>
+        <v>4067</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15744</v>
+        <v>16589</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01938916936979139</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00876770637909923</v>
+        <v>0.009093274552540873</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03520494045988343</v>
+        <v>0.0370962016403197</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>13050</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6731</v>
+        <v>7181</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21074</v>
+        <v>22347</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03825170435676292</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01972869437638498</v>
+        <v>0.02104931185344153</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06177290810309795</v>
+        <v>0.06550456347099709</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1437,19 +1437,19 @@
         <v>21721</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13550</v>
+        <v>13607</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32317</v>
+        <v>32794</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02755184313410457</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01718805179654966</v>
+        <v>0.01725995820544171</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04099301551807288</v>
+        <v>0.04159800211826884</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>438529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>431456</v>
+        <v>430611</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>443279</v>
+        <v>443133</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9806108306302086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9647950595401165</v>
+        <v>0.9629037983596801</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9912322936209007</v>
+        <v>0.9909067254474589</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -1487,19 +1487,19 @@
         <v>328108</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>320084</v>
+        <v>318811</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334427</v>
+        <v>333977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9617482956432371</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9382270918969019</v>
+        <v>0.9344954365290027</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.980271305623615</v>
+        <v>0.9789506881465582</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>754</v>
@@ -1508,19 +1508,19 @@
         <v>766637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>756041</v>
+        <v>755564</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>774808</v>
+        <v>774751</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9724481568658955</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9590069844819272</v>
+        <v>0.958401997881731</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9828119482034506</v>
+        <v>0.9827400417945581</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>68410</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53491</v>
+        <v>53901</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85641</v>
+        <v>84981</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02118090402441713</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01656158350790175</v>
+        <v>0.01668860080108926</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02651577441045129</v>
+        <v>0.02631131890062936</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>206</v>
@@ -1633,19 +1633,19 @@
         <v>212848</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>186513</v>
+        <v>187524</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>241160</v>
+        <v>245171</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06420811278019456</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05626389001240911</v>
+        <v>0.05656880365105636</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07274871997396107</v>
+        <v>0.07395883042708261</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>275</v>
@@ -1654,19 +1654,19 @@
         <v>281258</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>250584</v>
+        <v>250805</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>317275</v>
+        <v>314105</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04297443362148647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03828756412986355</v>
+        <v>0.03832133527003086</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04847752888303062</v>
+        <v>0.047993277914663</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3161401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3144170</v>
+        <v>3144830</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3176320</v>
+        <v>3175910</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9788190959755829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9734842255895487</v>
+        <v>0.9736886810993708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9834384164920983</v>
+        <v>0.9833113991989108</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3028</v>
@@ -1704,19 +1704,19 @@
         <v>3102121</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3073809</v>
+        <v>3069798</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3128456</v>
+        <v>3127445</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9357918872198054</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9272512800260384</v>
+        <v>0.9260411695729175</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9437361099875909</v>
+        <v>0.9434311963489439</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6126</v>
@@ -1725,19 +1725,19 @@
         <v>6263522</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6227505</v>
+        <v>6230675</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6294196</v>
+        <v>6293975</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9570255663785135</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9515224711169694</v>
+        <v>0.952006722085337</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9617124358701364</v>
+        <v>0.9616786647299691</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>47398</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34458</v>
+        <v>34755</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64169</v>
+        <v>64795</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04558315319782226</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03313834670722925</v>
+        <v>0.03342434322109412</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06171192947963829</v>
+        <v>0.06231422956192072</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -2090,19 +2090,19 @@
         <v>146272</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>124192</v>
+        <v>124179</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171228</v>
+        <v>172800</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1312439783625189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1114331112499955</v>
+        <v>0.1114208806362969</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1536362421329697</v>
+        <v>0.1550471211845628</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>179</v>
@@ -2111,19 +2111,19 @@
         <v>193670</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165299</v>
+        <v>166475</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220989</v>
+        <v>219938</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08989837036559183</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07672915567247658</v>
+        <v>0.0772750609853438</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1025797465428069</v>
+        <v>0.1020916058460152</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>992419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>975648</v>
+        <v>975022</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1005359</v>
+        <v>1005062</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9544168468021778</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9382880705203615</v>
+        <v>0.9376857704380793</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9668616532927706</v>
+        <v>0.9665756567789059</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>888</v>
@@ -2161,19 +2161,19 @@
         <v>968229</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>943273</v>
+        <v>941701</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>990309</v>
+        <v>990322</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.868756021637481</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8463637578670303</v>
+        <v>0.8449528788154372</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8885668887500044</v>
+        <v>0.888579119363703</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1822</v>
@@ -2182,19 +2182,19 @@
         <v>1960648</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1933329</v>
+        <v>1934380</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1989019</v>
+        <v>1987843</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9101016296344082</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.897420253457193</v>
+        <v>0.8979083941539847</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9232708443275234</v>
+        <v>0.9227249390146561</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>28013</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18761</v>
+        <v>18800</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41252</v>
+        <v>42273</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02877583472238015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0192722021422417</v>
+        <v>0.01931231926098163</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0423756547529826</v>
+        <v>0.0434241356422761</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -2307,19 +2307,19 @@
         <v>75407</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60355</v>
+        <v>58523</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93133</v>
+        <v>92769</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06911080117983019</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05531567590926003</v>
+        <v>0.05363725519516432</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08535765810169486</v>
+        <v>0.08502401331113149</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -2328,19 +2328,19 @@
         <v>103420</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83079</v>
+        <v>85426</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>124807</v>
+        <v>125385</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05009215433588755</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04023993605477529</v>
+        <v>0.0413769093060407</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06045149198210963</v>
+        <v>0.06073114372083455</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>945475</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>932236</v>
+        <v>931215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>954727</v>
+        <v>954688</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9712241652776199</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9576243452470169</v>
+        <v>0.9565758643577241</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9807277978577582</v>
+        <v>0.9806876807390185</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>945</v>
@@ -2378,19 +2378,19 @@
         <v>1015690</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>997964</v>
+        <v>998328</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1030742</v>
+        <v>1032574</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9308891988201698</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9146423418983051</v>
+        <v>0.9149759866888685</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9446843240907399</v>
+        <v>0.9463627448048356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1840</v>
@@ -2399,19 +2399,19 @@
         <v>1961165</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1939778</v>
+        <v>1939200</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1981506</v>
+        <v>1979159</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9499078456641125</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9395485080178904</v>
+        <v>0.9392688562791653</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9597600639452247</v>
+        <v>0.958623090693959</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>24436</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15835</v>
+        <v>15451</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35998</v>
+        <v>36810</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02763673608413215</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01790886221915887</v>
+        <v>0.01747436484455355</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04071303096494921</v>
+        <v>0.04163169245296532</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -2524,19 +2524,19 @@
         <v>55370</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42046</v>
+        <v>41951</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72222</v>
+        <v>72370</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06329721018228464</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04806515412272169</v>
+        <v>0.04795666143768521</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08256209289947689</v>
+        <v>0.08273152194905412</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -2545,19 +2545,19 @@
         <v>79806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63727</v>
+        <v>63897</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100894</v>
+        <v>99824</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04537144655547079</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03622993040443773</v>
+        <v>0.03632701245142665</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05736035958274444</v>
+        <v>0.05675230547600338</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>859749</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>848187</v>
+        <v>847375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>868350</v>
+        <v>868734</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9723632639158678</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9592869690350507</v>
+        <v>0.9583683075470346</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9820911377808411</v>
+        <v>0.9825256351554464</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>768</v>
@@ -2595,19 +2595,19 @@
         <v>819392</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>802540</v>
+        <v>802392</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>832716</v>
+        <v>832811</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9367027898177154</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9174379071005232</v>
+        <v>0.9172684780509459</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9519348458772784</v>
+        <v>0.9520433385623146</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1575</v>
@@ -2616,19 +2616,19 @@
         <v>1679141</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1658053</v>
+        <v>1659123</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1695220</v>
+        <v>1695050</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9546285534445292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9426396404172557</v>
+        <v>0.9432476945239967</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9637700695955623</v>
+        <v>0.9636729875485734</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>7985</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3562</v>
+        <v>3749</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16574</v>
+        <v>16236</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01587440244462284</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007080688390951435</v>
+        <v>0.00745222605085227</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0329479730839165</v>
+        <v>0.03227660925910147</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -2741,19 +2741,19 @@
         <v>18564</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11031</v>
+        <v>11260</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27451</v>
+        <v>29025</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04117483173498915</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02446562693198029</v>
+        <v>0.02497325793271551</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06088486839011669</v>
+        <v>0.06437590540217029</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -2762,19 +2762,19 @@
         <v>26550</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17599</v>
+        <v>17576</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39703</v>
+        <v>39500</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02783296015861209</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01844986653213945</v>
+        <v>0.01842597633613388</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04162251748011313</v>
+        <v>0.04140916187154624</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>495038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>486449</v>
+        <v>486787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>499461</v>
+        <v>499274</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9841255975553772</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9670520269160835</v>
+        <v>0.9677233907408984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9929193116090481</v>
+        <v>0.9925477739491477</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>392</v>
@@ -2812,19 +2812,19 @@
         <v>432304</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>423417</v>
+        <v>421843</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>439837</v>
+        <v>439608</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9588251682650109</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9391151316098834</v>
+        <v>0.9356240945978291</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9755343730680196</v>
+        <v>0.9750267420672845</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>846</v>
@@ -2833,19 +2833,19 @@
         <v>927341</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>914188</v>
+        <v>914391</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>936292</v>
+        <v>936315</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9721670398413879</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.958377482519887</v>
+        <v>0.9585908381284538</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9815501334678606</v>
+        <v>0.9815740236638661</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>107832</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86855</v>
+        <v>87327</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>131326</v>
+        <v>131450</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03171058370584281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02554177999211594</v>
+        <v>0.02568066120661271</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03861932221173535</v>
+        <v>0.03865599518067692</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>280</v>
@@ -2958,19 +2958,19 @@
         <v>295613</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>261888</v>
+        <v>265878</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>329776</v>
+        <v>332105</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08371381022010958</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0741633865154064</v>
+        <v>0.07529345050914212</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09338843559109536</v>
+        <v>0.09404789583645226</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>375</v>
@@ -2979,19 +2979,19 @@
         <v>403445</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>362611</v>
+        <v>364567</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>446982</v>
+        <v>446013</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05820251903053883</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0523116397867564</v>
+        <v>0.05259386191629502</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06448340018729129</v>
+        <v>0.06434363567866008</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3292681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3269187</v>
+        <v>3269063</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3313658</v>
+        <v>3313186</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9682894162941572</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9613806777882646</v>
+        <v>0.961344004819323</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9744582200078841</v>
+        <v>0.9743193387933873</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2993</v>
@@ -3029,19 +3029,19 @@
         <v>3235615</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3201452</v>
+        <v>3199123</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3269340</v>
+        <v>3265350</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9162861897798904</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9066115644089047</v>
+        <v>0.9059521041635481</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9258366134845941</v>
+        <v>0.9247065494908581</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6083</v>
@@ -3050,19 +3050,19 @@
         <v>6528296</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6484759</v>
+        <v>6485728</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6569130</v>
+        <v>6567174</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9417974809694611</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9355165998127087</v>
+        <v>0.9356563643213399</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9476883602132437</v>
+        <v>0.947406138083705</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>40756</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29705</v>
+        <v>29464</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56171</v>
+        <v>54072</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03613127171286188</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02633462827798981</v>
+        <v>0.02612085776532</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04979696785925481</v>
+        <v>0.04793606403180849</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -3415,19 +3415,19 @@
         <v>134077</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113224</v>
+        <v>112842</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>157013</v>
+        <v>158784</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1064470868221045</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08989165916096321</v>
+        <v>0.08958846569959521</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1246571388913975</v>
+        <v>0.1260630259171968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>161</v>
@@ -3436,19 +3436,19 @@
         <v>174833</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>150421</v>
+        <v>148052</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>204145</v>
+        <v>200853</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07322651388655564</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06300202248533848</v>
+        <v>0.06200996049664202</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08550388294903992</v>
+        <v>0.08412501000701751</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1087241</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1071826</v>
+        <v>1073925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1098292</v>
+        <v>1098533</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9638687282871381</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9502030321407453</v>
+        <v>0.9520639359681916</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9736653717220104</v>
+        <v>0.9738791422346802</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1067</v>
@@ -3486,19 +3486,19 @@
         <v>1125484</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1102548</v>
+        <v>1100777</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1146337</v>
+        <v>1146719</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8935529131778955</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8753428611086025</v>
+        <v>0.8739369740828032</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9101083408390368</v>
+        <v>0.9104115343004048</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2093</v>
@@ -3507,19 +3507,19 @@
         <v>2212725</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2183413</v>
+        <v>2186705</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2237137</v>
+        <v>2239506</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9267734861134443</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9144961170509599</v>
+        <v>0.9158749899929824</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9369979775146612</v>
+        <v>0.9379900395033576</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>17528</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10304</v>
+        <v>11114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26968</v>
+        <v>27800</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01928626176857302</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01133761414125781</v>
+        <v>0.01222853577040988</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0296738688174375</v>
+        <v>0.03058903421263835</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -3632,19 +3632,19 @@
         <v>56190</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42723</v>
+        <v>42728</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72026</v>
+        <v>73068</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05582887891726542</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04244832394477011</v>
+        <v>0.04245285601182149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07156268057184674</v>
+        <v>0.07259820972530814</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -3653,19 +3653,19 @@
         <v>73718</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59215</v>
+        <v>57839</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93511</v>
+        <v>91682</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03848912293102557</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03091690642449261</v>
+        <v>0.03019838010407809</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04882305662243842</v>
+        <v>0.04786797031292485</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>891297</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>881857</v>
+        <v>881025</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>898521</v>
+        <v>897711</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9807137382314269</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9703261311825629</v>
+        <v>0.9694109657873615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9886623858587422</v>
+        <v>0.9877714642295901</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>898</v>
@@ -3703,19 +3703,19 @@
         <v>950285</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>934449</v>
+        <v>933407</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>963752</v>
+        <v>963747</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9441711210827346</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9284373194281532</v>
+        <v>0.9274017902746917</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9575516760552298</v>
+        <v>0.9575471439881785</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1761</v>
@@ -3724,19 +3724,19 @@
         <v>1841582</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1821789</v>
+        <v>1823618</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1856085</v>
+        <v>1857461</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9615108770689744</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9511769433775616</v>
+        <v>0.9521320296870751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9690830935755075</v>
+        <v>0.9698016198959216</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>11695</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6144</v>
+        <v>6211</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20373</v>
+        <v>21561</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01419771823916132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007458595591919467</v>
+        <v>0.007539892024336906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02473116393924851</v>
+        <v>0.02617396500417792</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3849,19 +3849,19 @@
         <v>40934</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28559</v>
+        <v>29428</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56560</v>
+        <v>55828</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05308864432992487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0370387368360725</v>
+        <v>0.03816539725801544</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07335357350612967</v>
+        <v>0.07240454673026427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -3870,19 +3870,19 @@
         <v>52630</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38315</v>
+        <v>38133</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71632</v>
+        <v>69906</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03300060795452631</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02402440174368914</v>
+        <v>0.0239105168376317</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04491563042032761</v>
+        <v>0.04383342678111558</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>812064</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>803386</v>
+        <v>802198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>817615</v>
+        <v>817548</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9858022817608387</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9752688360607514</v>
+        <v>0.9738260349958221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9925414044080805</v>
+        <v>0.9924601079756631</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>693</v>
@@ -3920,19 +3920,19 @@
         <v>730125</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>714499</v>
+        <v>715231</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>742500</v>
+        <v>741631</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9469113556700751</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9266464264938703</v>
+        <v>0.9275954532697355</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9629612631639275</v>
+        <v>0.9618346027419845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1469</v>
@@ -3941,19 +3941,19 @@
         <v>1542188</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1523186</v>
+        <v>1524912</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1556503</v>
+        <v>1556685</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9669993920454737</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9550843695796727</v>
+        <v>0.9561665732188844</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9759755982563109</v>
+        <v>0.9760894831623683</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>4228</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>991</v>
+        <v>1154</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10700</v>
+        <v>9635</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008343313152917616</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001956003227729041</v>
+        <v>0.002276640819170847</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02111776607415375</v>
+        <v>0.01901581678415325</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -4066,19 +4066,19 @@
         <v>16808</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9744</v>
+        <v>9700</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27338</v>
+        <v>26980</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03432366469748992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01989842758448493</v>
+        <v>0.01980754939486669</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05582568126939899</v>
+        <v>0.05509464363670076</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -4087,19 +4087,19 @@
         <v>21036</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13738</v>
+        <v>12154</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33027</v>
+        <v>31605</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0211118140553315</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01378783870758554</v>
+        <v>0.01219767792546606</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03314657087410051</v>
+        <v>0.03171948373824819</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>502473</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>496001</v>
+        <v>497066</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505710</v>
+        <v>505547</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9916566868470824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9788822339258462</v>
+        <v>0.9809841832158467</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9980439967722711</v>
+        <v>0.9977233591808292</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>440</v>
@@ -4137,19 +4137,19 @@
         <v>472890</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>462360</v>
+        <v>462718</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>479954</v>
+        <v>479998</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9656763353025101</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.944174318730601</v>
+        <v>0.9449053563632991</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.980101572415515</v>
+        <v>0.9801924506051333</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>907</v>
@@ -4158,19 +4158,19 @@
         <v>975362</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>963371</v>
+        <v>964793</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>982660</v>
+        <v>984244</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9788881859446685</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9668534291258994</v>
+        <v>0.9682805162617518</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9862121612924145</v>
+        <v>0.9878023220745339</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>74207</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59263</v>
+        <v>57750</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92589</v>
+        <v>91217</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02203761617310113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01759953191639446</v>
+        <v>0.01715031679643574</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02749654743121468</v>
+        <v>0.02708917712385411</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>224</v>
@@ -4283,19 +4283,19 @@
         <v>248010</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>219132</v>
+        <v>217528</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>277649</v>
+        <v>283853</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07032158777658513</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06213354039799392</v>
+        <v>0.06167885410930123</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07872561321796638</v>
+        <v>0.08048488755990633</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>297</v>
@@ -4304,19 +4304,19 @@
         <v>322217</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>287337</v>
+        <v>288393</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>361936</v>
+        <v>358126</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04673818175611084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04167878506299383</v>
+        <v>0.04183198674167298</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05249953723080786</v>
+        <v>0.05194687073483364</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3293075</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3274693</v>
+        <v>3276065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3308019</v>
+        <v>3309532</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9779623838268988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9725034525687853</v>
+        <v>0.9729108228761459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9824004680836056</v>
+        <v>0.9828496832035648</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3098</v>
@@ -4354,19 +4354,19 @@
         <v>3278782</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3249143</v>
+        <v>3242939</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3307660</v>
+        <v>3309264</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9296784122234149</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9212743867820337</v>
+        <v>0.9195151124400938</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9378664596020061</v>
+        <v>0.9383211458906988</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6230</v>
@@ -4375,19 +4375,19 @@
         <v>6571858</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6532139</v>
+        <v>6535949</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6606738</v>
+        <v>6605682</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9532618182438891</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9475004627691922</v>
+        <v>0.9480531292651664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9583212149370055</v>
+        <v>0.9581680132583276</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>41646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30398</v>
+        <v>30400</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55120</v>
+        <v>54953</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08350319126282782</v>
+        <v>0.08350319126282783</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0609507077326592</v>
+        <v>0.0609541260260768</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.110519439634382</v>
+        <v>0.1101848464407603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -4740,19 +4740,19 @@
         <v>80292</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67447</v>
+        <v>67466</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95108</v>
+        <v>94259</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1287597833633163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1081614909520012</v>
+        <v>0.108191521338582</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1525188256695479</v>
+        <v>0.1511583859604001</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>167</v>
@@ -4761,19 +4761,19 @@
         <v>121938</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104035</v>
+        <v>103767</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>140432</v>
+        <v>139853</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1086485399199148</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09269645411807181</v>
+        <v>0.09245787330955696</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.125126083598108</v>
+        <v>0.1246110234619493</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>457093</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443619</v>
+        <v>443786</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468341</v>
+        <v>468339</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9164968087371722</v>
+        <v>0.9164968087371721</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8894805603656182</v>
+        <v>0.8898151535592392</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9390492922673409</v>
+        <v>0.939045873973923</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>737</v>
@@ -4811,19 +4811,19 @@
         <v>543288</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>528472</v>
+        <v>529321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>556133</v>
+        <v>556114</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8712402166366836</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8474811743304521</v>
+        <v>0.8488416140395997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8918385090479989</v>
+        <v>0.8918084786614178</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1149</v>
@@ -4832,19 +4832,19 @@
         <v>1000382</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>981888</v>
+        <v>982467</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1018285</v>
+        <v>1018553</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8913514600800853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.874873916401892</v>
+        <v>0.8753889765380507</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9073035458819283</v>
+        <v>0.9075421266904434</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>30928</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21656</v>
+        <v>21947</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44835</v>
+        <v>43630</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03222871921823883</v>
+        <v>0.03222871921823882</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02256689644797051</v>
+        <v>0.02287043864457029</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0467209492444849</v>
+        <v>0.04546513054721308</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -4957,19 +4957,19 @@
         <v>92942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78481</v>
+        <v>79052</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109209</v>
+        <v>107408</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08333750751955331</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07037137022585148</v>
+        <v>0.07088306313172082</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09792404651925091</v>
+        <v>0.09630844308429089</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>180</v>
@@ -4978,19 +4978,19 @@
         <v>123870</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107519</v>
+        <v>106356</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>145532</v>
+        <v>147749</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0596995444303824</v>
+        <v>0.05969954443038239</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05181939877041868</v>
+        <v>0.05125864467217337</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07013966292064312</v>
+        <v>0.07120837561809853</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>928714</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>914807</v>
+        <v>916012</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>937986</v>
+        <v>937695</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9677712807817612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9532790507555146</v>
+        <v>0.9545348694527871</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9774331035520296</v>
+        <v>0.9771295613554298</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1460</v>
@@ -5028,19 +5028,19 @@
         <v>1022304</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1006037</v>
+        <v>1007838</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1036765</v>
+        <v>1036194</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9166624924804468</v>
+        <v>0.9166624924804467</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9020759534807491</v>
+        <v>0.903691556915709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9296286297741483</v>
+        <v>0.9291169368682791</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2335</v>
@@ -5049,19 +5049,19 @@
         <v>1951018</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1929356</v>
+        <v>1927139</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1967369</v>
+        <v>1968532</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9403004555696176</v>
+        <v>0.9403004555696175</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9298603370793569</v>
+        <v>0.9287916243819015</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9481806012295811</v>
+        <v>0.9487413553278267</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>23120</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15817</v>
+        <v>15347</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33755</v>
+        <v>33182</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02209303099336131</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01511425564842602</v>
+        <v>0.01466551158873291</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03225535083789166</v>
+        <v>0.03170818651585642</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -5174,19 +5174,19 @@
         <v>61713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49407</v>
+        <v>50493</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74578</v>
+        <v>76338</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05892570455220515</v>
+        <v>0.05892570455220516</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04717547424376238</v>
+        <v>0.04821250652617925</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07120891647895772</v>
+        <v>0.07288914638799078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>124</v>
@@ -5195,19 +5195,19 @@
         <v>84833</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69632</v>
+        <v>69376</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102859</v>
+        <v>101567</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04051667820662721</v>
+        <v>0.04051667820662722</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03325640183720486</v>
+        <v>0.03313416326143456</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04912552421147702</v>
+        <v>0.04850849568870681</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1023359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1012724</v>
+        <v>1013297</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1030662</v>
+        <v>1031132</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9779069690066388</v>
+        <v>0.9779069690066386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9677446491621082</v>
+        <v>0.9682918134841435</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9848857443515739</v>
+        <v>0.9853344884112671</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1417</v>
@@ -5245,19 +5245,19 @@
         <v>985597</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>972732</v>
+        <v>970972</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>997903</v>
+        <v>996817</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9410742954477948</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9287910835210424</v>
+        <v>0.9271108536120093</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9528245257562376</v>
+        <v>0.9517874934738207</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2420</v>
@@ -5266,19 +5266,19 @@
         <v>2008957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1990931</v>
+        <v>1992223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2024158</v>
+        <v>2024414</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9594833217933726</v>
+        <v>0.9594833217933729</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.950874475788523</v>
+        <v>0.9514915043112935</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9667435981627952</v>
+        <v>0.9668658367385654</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>21255</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13859</v>
+        <v>13551</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32044</v>
+        <v>32239</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02177944633918348</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0142006951808739</v>
+        <v>0.01388551652367017</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03283404987793663</v>
+        <v>0.03303461607773497</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -5391,19 +5391,19 @@
         <v>48199</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37389</v>
+        <v>39082</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58980</v>
+        <v>59690</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05304456687614184</v>
+        <v>0.05304456687614183</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04114855989892644</v>
+        <v>0.04301190129259121</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0649097554277417</v>
+        <v>0.06569175407691769</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -5412,19 +5412,19 @@
         <v>69454</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56334</v>
+        <v>56272</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86169</v>
+        <v>83248</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03685385865537155</v>
+        <v>0.03685385865537154</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02989233569668127</v>
+        <v>0.02985949020244338</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04572346002683068</v>
+        <v>0.04417363322229682</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>954674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>943885</v>
+        <v>943690</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>962070</v>
+        <v>962378</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9782205536608165</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9671659501220633</v>
+        <v>0.9669653839222651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.985799304819126</v>
+        <v>0.9861144834763298</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1243</v>
@@ -5462,19 +5462,19 @@
         <v>860443</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>849662</v>
+        <v>848952</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>871253</v>
+        <v>869560</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9469554331238582</v>
+        <v>0.9469554331238581</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9350902445722584</v>
+        <v>0.934308245923082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9588514401010736</v>
+        <v>0.9569880987074089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2167</v>
@@ -5483,19 +5483,19 @@
         <v>1815117</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1798402</v>
+        <v>1801323</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1828237</v>
+        <v>1828299</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9631461413446284</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9542765399731694</v>
+        <v>0.9558263667777033</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9701076643033189</v>
+        <v>0.9701405097975565</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>116949</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97489</v>
+        <v>98061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140288</v>
+        <v>137524</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03359854060497108</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02800778848711221</v>
+        <v>0.02817197096940184</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04030339784603536</v>
+        <v>0.03950939709852588</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>446</v>
@@ -5608,19 +5608,19 @@
         <v>283146</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>256466</v>
+        <v>257265</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>309006</v>
+        <v>311837</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07663406500272155</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06941317685377514</v>
+        <v>0.0696294211038912</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08363316330245989</v>
+        <v>0.08439937624416699</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>572</v>
@@ -5629,19 +5629,19 @@
         <v>400095</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>366320</v>
+        <v>369872</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>434406</v>
+        <v>438392</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05575800465383149</v>
+        <v>0.0557580046538315</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05105105740790244</v>
+        <v>0.05154604625662912</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06053959717485143</v>
+        <v>0.06109515823920484</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3363840</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3340501</v>
+        <v>3343265</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3383300</v>
+        <v>3382728</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.966401459395029</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9596966021539648</v>
+        <v>0.9604906029014739</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9719922115128878</v>
+        <v>0.9718280290305982</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4857</v>
@@ -5679,19 +5679,19 @@
         <v>3411633</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3385773</v>
+        <v>3382942</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3438313</v>
+        <v>3437514</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9233659349972785</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9163668366975403</v>
+        <v>0.9156006237558332</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.930586823146225</v>
+        <v>0.9303705788961089</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8071</v>
@@ -5700,19 +5700,19 @@
         <v>6775473</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6741162</v>
+        <v>6737176</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6809248</v>
+        <v>6805696</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9442419953461684</v>
+        <v>0.9442419953461686</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9394604028251485</v>
+        <v>0.938904841760795</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9489489425920975</v>
+        <v>0.9484539537433706</v>
       </c>
     </row>
     <row r="18">
